--- a/pred_ohlcv/54_21/2020-01-16 REP ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 REP ohlcv.xlsx
@@ -938,7 +938,7 @@
         <v>-1436.2595</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-1371.8916</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-1460.5292</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-1840.524</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-1800.2167</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-1800.2167</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-1831.3461</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-1886.8687</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-1860.1753</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-1856.7138</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-1856.7138</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-1803.9651</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-1811.7168</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-1811.6168</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-1887.9365</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-1887.8041</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-1887.3906</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-1987.3906</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-1245.3862</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-1410.9406</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-1210.8333</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-1297.7932</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-1305.8782</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-1241.0498</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-1241.0498</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-1246.4465</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-1229.2906</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-1347.6399</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-1347.6399</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-1347.6399</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-1356.4153</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-1370.3651</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-1046.60639442947</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-1046.60639442947</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-1039.20639442947</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-371.3091944294703</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>15765.13248191839</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>16807.83898191839</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>14357.20108191839</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>12434.16615441839</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>13500.82485839563</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>13573.6064320531</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>13488.2113320531</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>13016.4295320531</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>13016.4295320531</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>12430.4822320531</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>11340.3556320531</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>10837.8649320531</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>10837.8649320531</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>9206.005980136431</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>8727.344680136432</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>9617.599280136432</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>10832.51858013643</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>11127.62688013643</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-16 REP ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 REP ohlcv.xlsx
@@ -1432,7 +1432,7 @@
         <v>-1410.9406</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-1210.8333</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-1297.7932</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-1305.8782</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-1241.0498</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-1241.0498</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-1246.4465</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-1229.2906</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-1347.6399</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-1347.6399</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-1347.6399</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-1356.4153</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-1370.3651</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-1288.0121</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-1046.60639442947</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-1046.60639442947</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-1039.20639442947</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>16917.49669170673</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>15765.13248191839</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>14357.20108191839</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>13488.2113320531</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>13016.4295320531</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>13016.4295320531</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>12430.4822320531</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>11340.3556320531</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>10837.8649320531</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>10837.8649320531</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>9206.005980136431</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>8727.344680136432</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>9617.599280136432</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>10832.51858013643</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>11127.62688013643</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
